--- a/tests/resources/test_data_query.xlsx
+++ b/tests/resources/test_data_query.xlsx
@@ -390,10 +390,8 @@
           <t>SoT</t>
         </is>
       </c>
-      <c r="C2" s="1" t="inlineStr">
-        <is>
-          <t>md</t>
-        </is>
+      <c r="C2" t="n">
+        <v>400</v>
       </c>
     </row>
     <row r="3">
@@ -407,10 +405,8 @@
           <t>A11</t>
         </is>
       </c>
-      <c r="C3" s="1" t="inlineStr">
-        <is>
-          <t>md</t>
-        </is>
+      <c r="C3" t="n">
+        <v>800</v>
       </c>
     </row>
     <row r="4">
@@ -424,10 +420,8 @@
           <t>A13</t>
         </is>
       </c>
-      <c r="C4" s="1" t="inlineStr">
-        <is>
-          <t>md</t>
-        </is>
+      <c r="C4" t="n">
+        <v>8900</v>
       </c>
     </row>
     <row r="5">
@@ -441,10 +435,8 @@
           <t>F9</t>
         </is>
       </c>
-      <c r="C5" s="1" t="inlineStr">
-        <is>
-          <t>md</t>
-        </is>
+      <c r="C5" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="6">
@@ -458,10 +450,8 @@
           <t>Columbia</t>
         </is>
       </c>
-      <c r="C6" s="1" t="inlineStr">
-        <is>
-          <t>md</t>
-        </is>
+      <c r="C6" t="n">
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/tests/resources/test_data_query.xlsx
+++ b/tests/resources/test_data_query.xlsx
@@ -28,7 +28,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
@@ -39,6 +39,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="00FFBF00"/>
         <bgColor rgb="00FFBF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF8080"/>
+        <bgColor rgb="FFFF8080"/>
       </patternFill>
     </fill>
   </fills>
@@ -54,9 +60,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -622,7 +629,7 @@
           <t>SoT</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C2" s="2" t="n">
         <v>3067</v>
       </c>
     </row>
@@ -637,7 +644,7 @@
           <t>A11</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C3" s="2" t="n">
         <v>89</v>
       </c>
     </row>
@@ -652,7 +659,7 @@
           <t>A13</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C4" s="2" t="n">
         <v>89809</v>
       </c>
     </row>
@@ -667,7 +674,7 @@
           <t>F9</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C5" s="2" t="n">
         <v>87879</v>
       </c>
     </row>

--- a/tests/resources/test_data_query.xlsx
+++ b/tests/resources/test_data_query.xlsx
@@ -28,18 +28,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFBF00"/>
-        <bgColor rgb="00FFBF00"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -60,10 +54,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -361,7 +354,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,76 +382,16 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>RPE</t>
+          <t>HSMRPG</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SoT</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>HSMRPG</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
           <t>A11</t>
         </is>
       </c>
-      <c r="C3" t="n">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Rail</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>A13</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>8900</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>RPE</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>F9</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Rail</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Columbia</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>78</v>
+      <c r="C2" s="1" t="n">
+        <v>2739.7</v>
       </c>
     </row>
   </sheetData>
@@ -472,7 +405,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -500,86 +433,16 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>RPE</t>
+          <t>HSMRPG</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SoT</t>
-        </is>
-      </c>
-      <c r="C2" s="1" t="inlineStr">
-        <is>
-          <t>md</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>HSMRPG</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
           <t>A11</t>
         </is>
       </c>
-      <c r="C3" s="1" t="inlineStr">
-        <is>
-          <t>md</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Rail</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>A13</t>
-        </is>
-      </c>
-      <c r="C4" s="1" t="inlineStr">
-        <is>
-          <t>md</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>RPE</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>F9</t>
-        </is>
-      </c>
-      <c r="C5" s="1" t="inlineStr">
-        <is>
-          <t>md</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Rail</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Columbia</t>
-        </is>
-      </c>
-      <c r="C6" s="1" t="inlineStr">
-        <is>
-          <t>md</t>
-        </is>
+      <c r="C2" s="1" t="n">
+        <v>902</v>
       </c>
     </row>
   </sheetData>
@@ -593,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -621,76 +484,16 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>RPE</t>
+          <t>Rail Group</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SoT</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="n">
-        <v>3067</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Rail</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
           <t>A11</t>
         </is>
       </c>
-      <c r="C3" s="2" t="n">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Rail</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>A13</t>
-        </is>
-      </c>
-      <c r="C4" s="2" t="n">
-        <v>89809</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>RPE</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>F9</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="n">
-        <v>87879</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Rail</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Columbia</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>4345</v>
+      <c r="C2" t="n">
+        <v>1378.6</v>
       </c>
     </row>
   </sheetData>

--- a/tests/resources/test_data_query.xlsx
+++ b/tests/resources/test_data_query.xlsx
@@ -354,7 +354,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -370,10 +370,20 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Project</t>
+          <t>Project Name</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
+        <is>
+          <t>Project Acronym</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>GMPP</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
         <is>
           <t>Total Forecast</t>
         </is>
@@ -382,15 +392,20 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>HSMRPG</t>
+          <t>HSRG</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Apollo 11</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>A11</t>
         </is>
       </c>
-      <c r="C2" s="1" t="n">
+      <c r="E2" s="1" t="n">
         <v>2739.7</v>
       </c>
     </row>
@@ -405,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -421,10 +436,20 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Project</t>
+          <t>Project Name</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
+        <is>
+          <t>Project Acronym</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>GMPP</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
         <is>
           <t>Total Forecast</t>
         </is>
@@ -433,15 +458,20 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>HSMRPG</t>
+          <t>HSRG</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Apollo 11</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>A11</t>
         </is>
       </c>
-      <c r="C2" s="1" t="n">
+      <c r="E2" s="1" t="n">
         <v>902</v>
       </c>
     </row>
@@ -456,7 +486,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,10 +502,20 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Project</t>
+          <t>Project Name</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
+        <is>
+          <t>Project Acronym</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>GMPP</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
         <is>
           <t>Total Forecast</t>
         </is>
@@ -484,15 +524,20 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Rail Group</t>
+          <t>HSRG</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Apollo 11</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>A11</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="E2" t="n">
         <v>1378.6</v>
       </c>
     </row>

--- a/tests/resources/test_data_query.xlsx
+++ b/tests/resources/test_data_query.xlsx
@@ -62,6 +62,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
